--- a/SAPInvPosting/Config_SAPInvPosting.xlsx
+++ b/SAPInvPosting/Config_SAPInvPosting.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -226,15 +226,6 @@
     <t>SAPConnNameProd</t>
   </si>
   <si>
-    <t>SAPConnNameDev</t>
-  </si>
-  <si>
-    <t>S4 HANA DEV</t>
-  </si>
-  <si>
-    <t>S4 HANA QA</t>
-  </si>
-  <si>
     <t>SAPLogonPath</t>
   </si>
   <si>
@@ -281,6 +272,33 @@
   </si>
   <si>
     <t>CDN,USD</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>SAPDefaultCurrency</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>SAPRefCANExt</t>
+  </si>
+  <si>
+    <t>S4H SandBox</t>
+  </si>
+  <si>
+    <t>StatesWithNoTax</t>
+  </si>
+  <si>
+    <t>StatesWithTax</t>
+  </si>
+  <si>
+    <t>Alaska,Arizona,Colorado,Delaware,Hawaii,Indiana,Mississippi,Montana,Nebraska,NewHampshire,NewMexico,Ohio,Oklahoma,Oregon,Texas,West Virginia,Wisconsin</t>
+  </si>
+  <si>
+    <t>Alabama,Arkansas,California,Connecticut,Florida,Georgia,Idaho,Illinois,Iowa,Kansas,Kentucky,Louisiana,Maine,Maryland,Massachusetts,Michigan,Minnesota,Missouri,Nevada,New Jersey,New York,North Carolina,North Dakota,Pennsylvania,Rhode Island,South Carolina,South Dakota,Tennessee,Utah,Vermont,Virginia,Washington,Wyoming</t>
   </si>
 </sst>
 </file>
@@ -652,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -706,45 +724,45 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="B9" s="1">
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="1">
-        <v>120</v>
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -757,259 +775,283 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1100</v>
+        <v>76</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="70" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="56" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="30" spans="1:3" ht="56" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="31" spans="1:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="42" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="33" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B33" s="1">
         <v>0</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="42" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="34" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B34" s="1">
         <v>0</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B46" s="1">
         <v>2</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:3" ht="56" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:3" ht="56" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="1" t="b">
+      <c r="B48" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>61</v>
       </c>
     </row>

--- a/SAPInvPosting/Config_SAPInvPosting.xlsx
+++ b/SAPInvPosting/Config_SAPInvPosting.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
   <si>
     <t>Name</t>
   </si>
@@ -41,15 +41,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ImportFolder</t>
-  </si>
-  <si>
     <t>SAPInvFolder</t>
   </si>
   <si>
-    <t>Store all SAP invoices</t>
-  </si>
-  <si>
     <t>SystemLogFileName</t>
   </si>
   <si>
@@ -83,22 +77,13 @@
     <t>Daily Or Monthly</t>
   </si>
   <si>
-    <t>Date,Log Type,Invoice File Name,Invoice Folder,Invoice Category,Invoice Source,FromEmailID,FromEmailDateTime</t>
-  </si>
-  <si>
     <t>Daily</t>
   </si>
   <si>
     <t>C:\Automation\Invoice Processing</t>
   </si>
   <si>
-    <t>Shared Folder\SAP Invoices</t>
-  </si>
-  <si>
     <t>SAPInvPosting\Log</t>
-  </si>
-  <si>
-    <t>SAPInvPosting\Data\ImportFolder</t>
   </si>
   <si>
     <t>SAPInvPosting_ApplicationLog_</t>
@@ -223,9 +208,6 @@
     <t>OrchestratorQueueName</t>
   </si>
   <si>
-    <t>SAPConnNameProd</t>
-  </si>
-  <si>
     <t>SAPLogonPath</t>
   </si>
   <si>
@@ -253,12 +235,6 @@
     <t>CompanyCode</t>
   </si>
   <si>
-    <t>InvUploadFolderPath</t>
-  </si>
-  <si>
-    <t>SAPInvPosting\Data\InvoiceFolder</t>
-  </si>
-  <si>
     <t>Store all invoice to upload in SAP after posting</t>
   </si>
   <si>
@@ -286,19 +262,193 @@
     <t>SAPRefCANExt</t>
   </si>
   <si>
+    <t>StatesWithNoTax</t>
+  </si>
+  <si>
+    <t>StatesWithTax</t>
+  </si>
+  <si>
+    <t>Alaska,Arizona,Colorado,Delaware,Hawaii,Indiana,Mississippi,Montana,Nebraska,NewHampshire,NewMexico,Ohio,Oklahoma,Oregon,Texas,West Virginia,Wisconsin</t>
+  </si>
+  <si>
+    <t>Alabama,Arkansas,California,Connecticut,Florida,Georgia,Idaho,Illinois,Iowa,Kansas,Kentucky,Louisiana,Maine,Maryland,Massachusetts,Michigan,Minnesota,Missouri,Nevada,New Jersey,New York,North Carolina,North Dakota,Pennsylvania,Rhode Island,South Carolina,South Dakota,Tennessee,Utah,Vermont,Virginia,Washington,Wyoming</t>
+  </si>
+  <si>
     <t>S4H SandBox</t>
   </si>
   <si>
-    <t>StatesWithNoTax</t>
-  </si>
-  <si>
-    <t>StatesWithTax</t>
-  </si>
-  <si>
-    <t>Alaska,Arizona,Colorado,Delaware,Hawaii,Indiana,Mississippi,Montana,Nebraska,NewHampshire,NewMexico,Ohio,Oklahoma,Oregon,Texas,West Virginia,Wisconsin</t>
-  </si>
-  <si>
-    <t>Alabama,Arkansas,California,Connecticut,Florida,Georgia,Idaho,Illinois,Iowa,Kansas,Kentucky,Louisiana,Maine,Maryland,Massachusetts,Michigan,Minnesota,Missouri,Nevada,New Jersey,New York,North Carolina,North Dakota,Pennsylvania,Rhode Island,South Carolina,South Dakota,Tennessee,Utah,Vermont,Virginia,Washington,Wyoming</t>
+    <t>SAPConnName</t>
+  </si>
+  <si>
+    <t>TaxExempt</t>
+  </si>
+  <si>
+    <t>I0 (A/P Tax Exempt)</t>
+  </si>
+  <si>
+    <t>VendorNameConfidence</t>
+  </si>
+  <si>
+    <t>VendorAddressConfidence</t>
+  </si>
+  <si>
+    <t>LogMessage_StartProcess</t>
+  </si>
+  <si>
+    <t>MIRO Process Started - {0}</t>
+  </si>
+  <si>
+    <t>Posting started for invoice</t>
+  </si>
+  <si>
+    <t>LogMessage_Tcode</t>
+  </si>
+  <si>
+    <t>LogMessage_CompanyCode</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoiceDate</t>
+  </si>
+  <si>
+    <t>LogMessage_ReferenceNo</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoiceAmount</t>
+  </si>
+  <si>
+    <t>LogMessage_Currency</t>
+  </si>
+  <si>
+    <t>LogMessage_TaxAmount</t>
+  </si>
+  <si>
+    <t>LogMessage_TaxExempt</t>
+  </si>
+  <si>
+    <t>Tax Exempt Selected</t>
+  </si>
+  <si>
+    <t>LogMessage_Text</t>
+  </si>
+  <si>
+    <t>Text Field Entered</t>
+  </si>
+  <si>
+    <t>MIRO T-Code Entered</t>
+  </si>
+  <si>
+    <t>Company Code Entered</t>
+  </si>
+  <si>
+    <t>Invoice Date Entered</t>
+  </si>
+  <si>
+    <t>Reference No Entered</t>
+  </si>
+  <si>
+    <t>Invoice Amount Entered</t>
+  </si>
+  <si>
+    <t>Currency Entered</t>
+  </si>
+  <si>
+    <t>Tax Amount Enered</t>
+  </si>
+  <si>
+    <t>LogMessage_VendorNameError</t>
+  </si>
+  <si>
+    <t>Vendor Name doesn't matched</t>
+  </si>
+  <si>
+    <t>LogMessage_VendorAddressError</t>
+  </si>
+  <si>
+    <t>Vendor Address doesn't matched</t>
+  </si>
+  <si>
+    <t>PO No Doesn't Exist</t>
+  </si>
+  <si>
+    <t>LogMessage_PONoError</t>
+  </si>
+  <si>
+    <t>LogMessage_PONo</t>
+  </si>
+  <si>
+    <t>PO No Entered</t>
+  </si>
+  <si>
+    <t>Balance is under PPV Thresold Limit</t>
+  </si>
+  <si>
+    <t>LogMessage_InPPVThresholdLimit</t>
+  </si>
+  <si>
+    <t>LogMessage_OutPPVThresholdLimit</t>
+  </si>
+  <si>
+    <t>Balance is out of PPV Thresold Limit</t>
+  </si>
+  <si>
+    <t>LogMessage_GetItemData</t>
+  </si>
+  <si>
+    <t>Getting Invoice Item Data</t>
+  </si>
+  <si>
+    <t>LogMessage_StartSAPLogonProcess</t>
+  </si>
+  <si>
+    <t>SAP Logon and Login process started ….</t>
+  </si>
+  <si>
+    <t>LogMessage_EndSAPLogonProcess</t>
+  </si>
+  <si>
+    <t>SAP Logon and Login process ended ….</t>
+  </si>
+  <si>
+    <t>LogMessage_VendorName</t>
+  </si>
+  <si>
+    <t>LogMessage_VendorAddress</t>
+  </si>
+  <si>
+    <t>Vendor Name matched</t>
+  </si>
+  <si>
+    <t>Vendor Address matched</t>
+  </si>
+  <si>
+    <t>StartDateTime,EndDateTime,Invoice File Name,Log Type,Message,Doc No,Status</t>
+  </si>
+  <si>
+    <t>BillToName1</t>
+  </si>
+  <si>
+    <t>BillToName2</t>
+  </si>
+  <si>
+    <t>AGC</t>
+  </si>
+  <si>
+    <t>BBX</t>
+  </si>
+  <si>
+    <t>If Billing Name is AGC then Text field = PONumber + " AGC"</t>
+  </si>
+  <si>
+    <t>If Billing Name is BlackBox then Text field = PONumber + " BBX"</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoiceDateError</t>
+  </si>
+  <si>
+    <t>Invoice Date is not valid.</t>
+  </si>
+  <si>
+    <t>Shared Folder\InvoiceFolder</t>
   </si>
 </sst>
 </file>
@@ -345,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -356,6 +506,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,15 +821,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.453125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="1"/>
@@ -697,48 +848,53 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -754,20 +910,20 @@
         <v>66</v>
       </c>
       <c r="B9" s="1">
-        <v>500</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>71</v>
@@ -775,284 +931,495 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="B15" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="70" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="70" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="56" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="56" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="42" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="42" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="1">
+        <v>91</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" s="1">
         <v>2</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:3" ht="56" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="1" t="b">
+      <c r="C79" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:3" ht="56" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>61</v>
+      <c r="C82" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/SAPInvPosting/Config_SAPInvPosting.xlsx
+++ b/SAPInvPosting/Config_SAPInvPosting.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="165">
   <si>
     <t>Name</t>
   </si>
@@ -295,9 +295,6 @@
     <t>LogMessage_StartProcess</t>
   </si>
   <si>
-    <t>MIRO Process Started - {0}</t>
-  </si>
-  <si>
     <t>Posting started for invoice</t>
   </si>
   <si>
@@ -379,18 +376,6 @@
     <t>PO No Entered</t>
   </si>
   <si>
-    <t>Balance is under PPV Thresold Limit</t>
-  </si>
-  <si>
-    <t>LogMessage_InPPVThresholdLimit</t>
-  </si>
-  <si>
-    <t>LogMessage_OutPPVThresholdLimit</t>
-  </si>
-  <si>
-    <t>Balance is out of PPV Thresold Limit</t>
-  </si>
-  <si>
     <t>LogMessage_GetItemData</t>
   </si>
   <si>
@@ -421,9 +406,6 @@
     <t>Vendor Address matched</t>
   </si>
   <si>
-    <t>StartDateTime,EndDateTime,Invoice File Name,Log Type,Message,Doc No,Status</t>
-  </si>
-  <si>
     <t>BillToName1</t>
   </si>
   <si>
@@ -449,6 +431,102 @@
   </si>
   <si>
     <t>Shared Folder\InvoiceFolder</t>
+  </si>
+  <si>
+    <t>LogMessage_PostingPartialInvoice</t>
+  </si>
+  <si>
+    <t>Invoice Category - Partial Invoice</t>
+  </si>
+  <si>
+    <t>LogMessage_CancelPosting</t>
+  </si>
+  <si>
+    <t>Invoice Categoty - Cancel Posting</t>
+  </si>
+  <si>
+    <t>LogMessage_PostingInvoice</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoiceAlreadyPosted</t>
+  </si>
+  <si>
+    <t>Check if invoice already entered under journal entry</t>
+  </si>
+  <si>
+    <t>Message in status bar if invoice is already posted, this is used to check the message in SAP status bar and then cancel the posting</t>
+  </si>
+  <si>
+    <t>Invoice {0} is already posted with Document No {1}</t>
+  </si>
+  <si>
+    <t>MIRO Process Started for invoice - {0}</t>
+  </si>
+  <si>
+    <t>LogMessage_StartBusinessRuleCheck</t>
+  </si>
+  <si>
+    <t>Start of Business Rule check</t>
+  </si>
+  <si>
+    <t>LogMessage_StartCanadaInvoiceCheck</t>
+  </si>
+  <si>
+    <t>Checking the Canada Invoice…</t>
+  </si>
+  <si>
+    <t>LogMessage_StartReferenceCheck</t>
+  </si>
+  <si>
+    <t>Reference logic check</t>
+  </si>
+  <si>
+    <t>LogMessage_BasicTabEntry</t>
+  </si>
+  <si>
+    <t>Basic Tab entry started</t>
+  </si>
+  <si>
+    <t>LogMessage_StartPartialInvoiceCheck</t>
+  </si>
+  <si>
+    <t>Start of full or partial invoice check…</t>
+  </si>
+  <si>
+    <t>Invoice Category - Full Invoice</t>
+  </si>
+  <si>
+    <t>Posting invoice process started</t>
+  </si>
+  <si>
+    <t>LogMessage_CancelInvoice</t>
+  </si>
+  <si>
+    <t>Cancel Invoice process started</t>
+  </si>
+  <si>
+    <t>StartDateTime,EndDateTime,Vendor Name,Bill To Name,Invoice No,PO Number,Invoice File Name,Log Type,Message,Doc No,Status</t>
+  </si>
+  <si>
+    <t>DuplicatePostingMsg</t>
+  </si>
+  <si>
+    <t>InvalidPOMsg1</t>
+  </si>
+  <si>
+    <t>InvalidPOMsg2</t>
+  </si>
+  <si>
+    <t>Purchase order</t>
+  </si>
+  <si>
+    <t>does not exist</t>
+  </si>
+  <si>
+    <t>Invoice document still contains messages</t>
+  </si>
+  <si>
+    <t>PostingMsg</t>
   </si>
 </sst>
 </file>
@@ -821,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -859,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>67</v>
@@ -958,7 +1036,7 @@
         <v>84</v>
       </c>
       <c r="B15" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -971,24 +1049,24 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42" x14ac:dyDescent="0.35">
@@ -1012,7 +1090,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1064,169 +1142,172 @@
         <v>14</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="56" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="36" spans="1:3" ht="56" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="37" spans="1:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="42" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="39" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B39" s="1">
         <v>0</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="42" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="40" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B40" s="1">
         <v>0</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>103</v>
+        <v>142</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>99</v>
@@ -1234,191 +1315,287 @@
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B63" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B79" s="1">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B85" s="1">
         <v>2</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:3" ht="56" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="1:3" ht="56" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="1" t="b">
+      <c r="B87" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>56</v>
       </c>
     </row>

--- a/SAPInvPosting/Config_SAPInvPosting.xlsx
+++ b/SAPInvPosting/Config_SAPInvPosting.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
   </si>
   <si>
-    <t>Shared</t>
-  </si>
-  <si>
     <t>OrchestratorQueueFolder</t>
   </si>
   <si>
@@ -304,54 +301,12 @@
     <t>LogMessage_CompanyCode</t>
   </si>
   <si>
-    <t>LogMessage_InvoiceDate</t>
-  </si>
-  <si>
-    <t>LogMessage_ReferenceNo</t>
-  </si>
-  <si>
-    <t>LogMessage_InvoiceAmount</t>
-  </si>
-  <si>
-    <t>LogMessage_Currency</t>
-  </si>
-  <si>
-    <t>LogMessage_TaxAmount</t>
-  </si>
-  <si>
-    <t>LogMessage_TaxExempt</t>
-  </si>
-  <si>
-    <t>Tax Exempt Selected</t>
-  </si>
-  <si>
-    <t>LogMessage_Text</t>
-  </si>
-  <si>
-    <t>Text Field Entered</t>
-  </si>
-  <si>
     <t>MIRO T-Code Entered</t>
   </si>
   <si>
     <t>Company Code Entered</t>
   </si>
   <si>
-    <t>Invoice Date Entered</t>
-  </si>
-  <si>
-    <t>Reference No Entered</t>
-  </si>
-  <si>
-    <t>Invoice Amount Entered</t>
-  </si>
-  <si>
-    <t>Currency Entered</t>
-  </si>
-  <si>
-    <t>Tax Amount Enered</t>
-  </si>
-  <si>
     <t>LogMessage_VendorNameError</t>
   </si>
   <si>
@@ -370,18 +325,6 @@
     <t>LogMessage_PONoError</t>
   </si>
   <si>
-    <t>LogMessage_PONo</t>
-  </si>
-  <si>
-    <t>PO No Entered</t>
-  </si>
-  <si>
-    <t>LogMessage_GetItemData</t>
-  </si>
-  <si>
-    <t>Getting Invoice Item Data</t>
-  </si>
-  <si>
     <t>LogMessage_StartSAPLogonProcess</t>
   </si>
   <si>
@@ -439,12 +382,6 @@
     <t>Invoice Category - Partial Invoice</t>
   </si>
   <si>
-    <t>LogMessage_CancelPosting</t>
-  </si>
-  <si>
-    <t>Invoice Categoty - Cancel Posting</t>
-  </si>
-  <si>
     <t>LogMessage_PostingInvoice</t>
   </si>
   <si>
@@ -463,48 +400,15 @@
     <t>MIRO Process Started for invoice - {0}</t>
   </si>
   <si>
-    <t>LogMessage_StartBusinessRuleCheck</t>
-  </si>
-  <si>
-    <t>Start of Business Rule check</t>
-  </si>
-  <si>
     <t>LogMessage_StartCanadaInvoiceCheck</t>
   </si>
   <si>
     <t>Checking the Canada Invoice…</t>
   </si>
   <si>
-    <t>LogMessage_StartReferenceCheck</t>
-  </si>
-  <si>
-    <t>Reference logic check</t>
-  </si>
-  <si>
-    <t>LogMessage_BasicTabEntry</t>
-  </si>
-  <si>
-    <t>Basic Tab entry started</t>
-  </si>
-  <si>
-    <t>LogMessage_StartPartialInvoiceCheck</t>
-  </si>
-  <si>
-    <t>Start of full or partial invoice check…</t>
-  </si>
-  <si>
     <t>Invoice Category - Full Invoice</t>
   </si>
   <si>
-    <t>Posting invoice process started</t>
-  </si>
-  <si>
-    <t>LogMessage_CancelInvoice</t>
-  </si>
-  <si>
-    <t>Cancel Invoice process started</t>
-  </si>
-  <si>
     <t>StartDateTime,EndDateTime,Vendor Name,Bill To Name,Invoice No,PO Number,Invoice File Name,Log Type,Message,Doc No,Status</t>
   </si>
   <si>
@@ -527,6 +431,18 @@
   </si>
   <si>
     <t>PostingMsg</t>
+  </si>
+  <si>
+    <t>POStillIncomplete1</t>
+  </si>
+  <si>
+    <t>POStillIncomplete2</t>
+  </si>
+  <si>
+    <t>still incomplete</t>
+  </si>
+  <si>
+    <t>USA/Finance</t>
   </si>
 </sst>
 </file>
@@ -899,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -937,31 +853,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1">
         <v>500</v>
@@ -969,23 +885,23 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1">
         <v>1100</v>
@@ -993,47 +909,47 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -1041,48 +957,48 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="70" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1090,7 +1006,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1144,459 +1060,347 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="56" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="56" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="28" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="42" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="1">
+    </row>
+    <row r="42" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1">
         <v>0</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="42" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+        <v>30</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" s="1" t="s">
+    </row>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="B51" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="B55" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="B56" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>123</v>
+        <v>36</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>110</v>
+        <v>39</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>113</v>
+        <v>42</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>152</v>
+        <v>45</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
+        <v>48</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>115</v>
+        <v>50</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B84" s="1">
+        <v>52</v>
+      </c>
+      <c r="B71" s="1">
         <v>2</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B85" s="1">
-        <v>2</v>
-      </c>
-      <c r="C85" s="1" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:3" ht="56" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" spans="1:3" ht="56" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+      <c r="B73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B87" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/SAPInvPosting/Config_SAPInvPosting.xlsx
+++ b/SAPInvPosting/Config_SAPInvPosting.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -409,9 +409,6 @@
     <t>Invoice Category - Full Invoice</t>
   </si>
   <si>
-    <t>StartDateTime,EndDateTime,Vendor Name,Bill To Name,Invoice No,PO Number,Invoice File Name,Log Type,Message,Doc No,Status</t>
-  </si>
-  <si>
     <t>DuplicatePostingMsg</t>
   </si>
   <si>
@@ -443,6 +440,33 @@
   </si>
   <si>
     <t>USA/Finance</t>
+  </si>
+  <si>
+    <t>LogMessage_POIncomplete</t>
+  </si>
+  <si>
+    <t>PO is still in-complete</t>
+  </si>
+  <si>
+    <t>LogMessage_PostingSuccess</t>
+  </si>
+  <si>
+    <t>Invoice posted successfully</t>
+  </si>
+  <si>
+    <t>Good not yet received</t>
+  </si>
+  <si>
+    <t>LogMessage_GRNotReceived</t>
+  </si>
+  <si>
+    <t>LogMessage_PartialInvoiceMsg</t>
+  </si>
+  <si>
+    <t>Partial Invoice - Item Data doesn't match</t>
+  </si>
+  <si>
+    <t>StartDateTime,EndDateTime,Invoice File Name,Vendor Name,Bill To Name,Invoice No,Invoice Date,PO Number,Log Type,User Message,Message,Doc No,Status</t>
   </si>
 </sst>
 </file>
@@ -815,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1006,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1060,7 +1084,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>118</v>
@@ -1071,42 +1095,42 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -1125,7 +1149,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>22</v>
@@ -1293,113 +1317,143 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="1">
-        <v>2</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>51</v>
+        <v>142</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B73" s="1">
         <v>2</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:3" ht="56" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="1:3" ht="56" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="1" t="b">
+      <c r="B75" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>55</v>
       </c>
     </row>

--- a/SAPInvPosting/Config_SAPInvPosting.xlsx
+++ b/SAPInvPosting/Config_SAPInvPosting.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>ApplicationLogHeader</t>
-  </si>
-  <si>
-    <t>Date,Type,Message</t>
   </si>
   <si>
     <t>LogFrequency</t>
@@ -124,9 +121,6 @@
     <t>ExScreenshotsFolderPath</t>
   </si>
   <si>
-    <t>Exceptions_Screenshots</t>
-  </si>
-  <si>
     <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
   </si>
   <si>
@@ -467,6 +461,15 @@
   </si>
   <si>
     <t>StartDateTime,EndDateTime,Invoice File Name,Vendor Name,Bill To Name,Invoice No,Invoice Date,PO Number,Log Type,User Message,Message,Doc No,Status</t>
+  </si>
+  <si>
+    <t>PostingYear</t>
+  </si>
+  <si>
+    <t>Date,LogType,LogMessage</t>
+  </si>
+  <si>
+    <t>SAPInvPosting\Data\Exceptions_Screenshots</t>
   </si>
 </sst>
 </file>
@@ -841,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -869,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -877,31 +880,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1">
         <v>500</v>
@@ -909,23 +912,23 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1">
         <v>1100</v>
@@ -933,47 +936,47 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -981,7 +984,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -989,40 +992,48 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>110</v>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2023</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="70" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1030,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1038,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
@@ -1046,10 +1057,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -1057,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
@@ -1068,393 +1079,393 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="56" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="28" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B72" s="1">
         <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B73" s="1">
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="1:3" ht="56" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B75" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/SAPInvPosting/Config_SAPInvPosting.xlsx
+++ b/SAPInvPosting/Config_SAPInvPosting.xlsx
@@ -265,9 +265,6 @@
     <t>Alabama,Arkansas,California,Connecticut,Florida,Georgia,Idaho,Illinois,Iowa,Kansas,Kentucky,Louisiana,Maine,Maryland,Massachusetts,Michigan,Minnesota,Missouri,Nevada,New Jersey,New York,North Carolina,North Dakota,Pennsylvania,Rhode Island,South Carolina,South Dakota,Tennessee,Utah,Vermont,Virginia,Washington,Wyoming</t>
   </si>
   <si>
-    <t>S4H SandBox</t>
-  </si>
-  <si>
     <t>SAPConnName</t>
   </si>
   <si>
@@ -470,6 +467,9 @@
   </si>
   <si>
     <t>SAPInvPosting\Data\Exceptions_Screenshots</t>
+  </si>
+  <si>
+    <t>S4 HANA PROD</t>
   </si>
 </sst>
 </file>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>64</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -968,15 +968,15 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -992,29 +992,29 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" s="1">
         <v>2023</v>
@@ -1041,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1079,7 +1079,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -1095,53 +1095,53 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -1160,7 +1160,7 @@
         <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>21</v>
@@ -1205,7 +1205,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>29</v>
@@ -1214,142 +1214,142 @@
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1409,18 +1409,18 @@
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">

--- a/SAPInvPosting/Config_SAPInvPosting.xlsx
+++ b/SAPInvPosting/Config_SAPInvPosting.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="153">
   <si>
     <t>Name</t>
   </si>
@@ -470,6 +470,27 @@
   </si>
   <si>
     <t>S4 HANA PROD</t>
+  </si>
+  <si>
+    <t>Invoice_Processed_Path</t>
+  </si>
+  <si>
+    <t>SAPInvPosting\Data\Invoice_Processed</t>
+  </si>
+  <si>
+    <t>GLAccNo</t>
+  </si>
+  <si>
+    <t>BusinessArea</t>
+  </si>
+  <si>
+    <t>CostCenter</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>USB0000000</t>
   </si>
 </sst>
 </file>
@@ -516,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -528,6 +549,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -888,103 +912,103 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="1">
-        <v>500</v>
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="B7" s="1">
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1100</v>
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -992,479 +1016,511 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>81</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="42" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="70" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3" ht="70" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="1">
+        <v>57021100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="56" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="44" spans="1:3" ht="56" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="28" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="42" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="47" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B47" s="1">
         <v>0</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="42" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="48" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B48" s="1">
         <v>0</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
+        <v>144</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>140</v>
+        <v>31</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="1">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B79" s="1">
         <v>2</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="1:3" ht="56" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
+    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" spans="1:3" ht="56" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B75" s="1" t="b">
+      <c r="B81" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>53</v>
       </c>
     </row>
